--- a/detailed_channel_info/KCMA1-2_MOUSE.xlsx
+++ b/detailed_channel_info/KCMA1-2_MOUSE.xlsx
@@ -134,9 +134,6 @@
     <t>CURATOR:</t>
   </si>
   <si>
-    <t>vahidgh</t>
-  </si>
-  <si>
     <t>REFERENCES:</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>http://www.guidetopharmacology.org/GRAC/ObjectDisplayForward?objectId=380&amp;familyId=69&amp;familyType=IC</t>
+  </si>
+  <si>
+    <t>vahidgh, gopal_sarma</t>
   </si>
 </sst>
 </file>
@@ -574,7 +574,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="50.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -595,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -611,7 +611,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="64" x14ac:dyDescent="0.2">
@@ -619,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -627,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
@@ -635,7 +635,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -659,7 +659,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -667,7 +667,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -675,7 +675,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="80" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -691,7 +691,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -699,7 +699,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -707,7 +707,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -715,7 +715,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -723,7 +723,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -731,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -841,32 +841,32 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
